--- a/ExitSeminarRSVP.xlsx
+++ b/ExitSeminarRSVP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Jaekyung Kim</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Jai Yu</t>
+  </si>
+  <si>
+    <t>Kristin Cotner</t>
+  </si>
+  <si>
+    <t>Andrew Bremer</t>
   </si>
 </sst>
 </file>
@@ -457,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -533,6 +539,16 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
